--- a/biology/Zoologie/Elaphe_carinata/Elaphe_carinata.xlsx
+++ b/biology/Zoologie/Elaphe_carinata/Elaphe_carinata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elaphe carinata ou serpent ratier royal est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elaphe carinata ou serpent ratier royal est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Chine, au Japon, à Taïwan et dans le nord du Viêt Nam[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Chine, au Japon, à Taïwan et dans le nord du Viêt Nam.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elaphe carinata mesure de 150 à 240 cm, exceptionnellement jusqu'à 240 cm. Son dos est brun clair et son ventre rose. Ses écailles sont grandes.
 Cette espèce se nourrit de petits mammifères comme les rongeurs et d'autres serpents. Elle étouffe ses proies par constriction. On la rencontre dans les champs.
@@ -576,11 +592,13 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (18 décembre 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (18 décembre 2013) :
 Elaphe carinata carinata (Günther, 1864)
-Elaphe carinata yonaguniensis Takara, 1962 - Japon ; espèce considérée comme vulnérable[1]</t>
+Elaphe carinata yonaguniensis Takara, 1962 - Japon ; espèce considérée comme vulnérable</t>
         </is>
       </c>
     </row>
@@ -608,7 +626,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Günther, 1864 : The reptiles of British India. p. 1-452 (texte intégral).
 Takara, 1962 : Studies on the terrestrial snakes in the Ryukyu Archipelago. The science bulletin of the Division of Agriculture, Home Economics &amp; Engineering, University of the Ryukyus, no 9, p. 1–202.</t>
